--- a/data/trans_media/Q17B-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q17B-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,28</t>
+          <t>1,07; 1,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,73</t>
+          <t>1,11; 1,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,43</t>
+          <t>1,04; 1,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,67</t>
+          <t>1,28; 1,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,3</t>
+          <t>1,07; 1,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,57</t>
+          <t>1,24; 1,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,75</t>
+          <t>1,21; 1,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,45</t>
+          <t>1,13; 1,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,19</t>
+          <t>1,05; 1,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,33</t>
+          <t>1,13; 1,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,22</t>
+          <t>1,08; 1,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,26</t>
+          <t>1,09; 1,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,44</t>
+          <t>1,19; 1,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,21</t>
+          <t>1,08; 1,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,12</t>
+          <t>1,0; 1,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,72</t>
+          <t>1,12; 1,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,34</t>
+          <t>1,08; 1,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,19</t>
+          <t>1,0; 1,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,46</t>
+          <t>1,19; 1,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,11</t>
+          <t>1,01; 1,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,48</t>
+          <t>1,19; 1,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,51</t>
+          <t>1,22; 1,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,18</t>
+          <t>1,04; 1,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 1,5</t>
+          <t>1,29; 1,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,42</t>
+          <t>1,17; 1,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 1,59</t>
+          <t>1,37; 1,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,06</t>
+          <t>1,24; 2,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,36</t>
+          <t>1,24; 2,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,28</t>
+          <t>1,03; 1,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,87</t>
+          <t>1,25; 1,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,37</t>
+          <t>1,15; 1,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,75</t>
+          <t>1,28; 1,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,1</t>
+          <t>1,01; 1,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,13</t>
+          <t>1,0; 1,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,6</t>
+          <t>1,16; 1,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,24</t>
+          <t>1,52; 2,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,56</t>
+          <t>1,05; 1,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,34</t>
+          <t>1,14; 1,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,11</t>
+          <t>1,94; 2,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,37</t>
+          <t>1,04; 1,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,4</t>
+          <t>1,17; 1,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,5</t>
+          <t>1,85; 2,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,66</t>
+          <t>1,09; 1,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,06</t>
+          <t>1,32; 2,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,48</t>
+          <t>1,07; 1,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,36</t>
+          <t>1,18; 1,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,44</t>
+          <t>1,16; 1,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,41</t>
+          <t>1,11; 1,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,28</t>
+          <t>1,16; 1,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,57</t>
+          <t>1,27; 1,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,4</t>
+          <t>1,17; 1,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,28</t>
+          <t>1,11; 1,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,23</t>
+          <t>1,08; 1,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,12 +1724,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,44</t>
+          <t>1,25; 1,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,76</t>
+          <t>1,22; 1,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,39</t>
+          <t>1,23; 1,39</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,49</t>
+          <t>1,2; 1,51</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,16</t>
+          <t>1,07; 1,17</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,38</t>
+          <t>1,24; 1,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,44</t>
+          <t>1,25; 1,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,27</t>
+          <t>1,17; 1,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,41</t>
+          <t>1,26; 1,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,12 +1884,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,27</t>
+          <t>1,18; 1,27</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,25; 1,34</t>
+          <t>1,26; 1,34</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
